--- a/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
+++ b/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16392" windowHeight="5304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PSPAP History" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
+++ b/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16392" windowHeight="5304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16392" windowHeight="5304"/>
   </bookViews>
   <sheets>
     <sheet name="PSPAP History" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>

--- a/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
+++ b/_dat/cost/Copy of PSPAP_historic funding_for Mike Colvin.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcolvin\Documents\projects\Pallid Sturgeon\Analysis\PSPAP-Reboot\_dat\cost\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16392" windowHeight="5304"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="PSPAP History" sheetId="1" r:id="rId1"/>
     <sheet name="compiled" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -376,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,6 +445,7 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -713,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1207,8 +1213,8 @@
         <f t="shared" si="1"/>
         <v>3155190.5700000003</v>
       </c>
-      <c r="N10" s="26">
-        <f t="shared" si="1"/>
+      <c r="N10" s="47">
+        <f>SUM(N3:N9)</f>
         <v>2570510.0699999998</v>
       </c>
       <c r="O10" s="27">
@@ -1249,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
